--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,132 +40,123 @@
     <t>name</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>insane</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>boring</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>worse</t>
+    <t>stupid</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>serious</t>
   </si>
   <si>
     <t>least</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -181,147 +172,159 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>absolutely</t>
   </si>
   <si>
     <t>whole</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>definitely</t>
   </si>
   <si>
     <t>today</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>opening</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>irony</t>
+    <t>world</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
-    <t>world</t>
+    <t>make</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
+    <t>tech</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
@@ -331,31 +334,37 @@
     <t>twitter</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>know</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>must</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -716,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,10 +733,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -806,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -856,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -888,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -956,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -977,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -985,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9519230769230769</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1027,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1035,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9242424242424242</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1056,16 +1065,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1077,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1085,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1103,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.84</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1127,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,16 +1165,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.7017543859649122</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1177,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1185,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,16 +1215,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1253,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.6896551724137931</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1277,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1285,13 +1294,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1306,16 +1315,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1327,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1335,13 +1344,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1353,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1377,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1385,13 +1394,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,16 +1415,16 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.64</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1456,16 +1465,16 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1477,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1488,10 +1497,10 @@
         <v>0.75</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.6111111111111112</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1527,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1538,10 +1547,10 @@
         <v>0.75</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1553,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.5925925925925926</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1585,13 +1594,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6956521739130435</v>
+        <v>0.75</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.5789473684210527</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1627,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1635,13 +1644,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6923076923076923</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1677,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1685,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6875</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1706,16 +1715,16 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.5277777777777778</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1727,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1735,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1753,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1777,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1785,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6595744680851063</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1803,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -1827,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1835,13 +1844,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6594202898550725</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1853,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1877,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1885,13 +1894,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.65</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1903,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.4210526315789473</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1927,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1935,13 +1944,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6470588235294118</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1953,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.4117647058823529</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1977,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2006,16 +2015,16 @@
         <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.4067796610169492</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2027,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2035,13 +2044,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2053,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.3809523809523809</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2085,13 +2094,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2103,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.3658536585365854</v>
+        <v>0.4</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2127,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2135,13 +2144,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2153,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.3541666666666667</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2177,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2206,16 +2215,16 @@
         <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.3214285714285715</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2227,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2235,38 +2244,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5714285714285714</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="L32">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>8</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32">
-        <v>0.3142076502732241</v>
-      </c>
-      <c r="L32">
-        <v>345</v>
-      </c>
-      <c r="M32">
-        <v>345</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>753</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2285,13 +2294,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5714285714285714</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2303,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.3043478260869565</v>
+        <v>0.3224043715846995</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2327,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2335,13 +2344,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5428571428571428</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2353,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.2769230769230769</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2377,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2385,13 +2394,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2403,19 +2412,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.2647058823529412</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2427,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2435,13 +2444,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5357142857142857</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2453,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.2608695652173913</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2477,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2485,13 +2494,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2503,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>0.2592592592592592</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2527,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2535,13 +2544,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2553,19 +2562,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K38">
-        <v>0.2571428571428571</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2577,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2585,13 +2594,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2603,19 +2612,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>0.2459016393442623</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2627,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2635,13 +2644,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2653,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>0.2421052631578947</v>
+        <v>0.25</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2677,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2685,13 +2694,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4285714285714285</v>
+        <v>0.24</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2703,19 +2712,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>0.2195121951219512</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2727,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2735,13 +2744,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3636363636363636</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2753,19 +2762,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K42">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2777,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2785,31 +2794,31 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3333333333333333</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>0.1739130434782609</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L43">
         <v>8</v>
@@ -2827,45 +2836,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>13</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.1690140845070423</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L44">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2877,45 +2862,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="C45">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <v>16</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>62</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.1643835616438356</v>
+        <v>0.21875</v>
       </c>
       <c r="L45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2927,45 +2888,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.05084745762711865</v>
-      </c>
-      <c r="C46">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>19</v>
-      </c>
-      <c r="E46">
-        <v>0.21</v>
-      </c>
-      <c r="F46">
-        <v>0.79</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>280</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K46">
-        <v>0.1555555555555556</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2977,21 +2914,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K47">
-        <v>0.1481481481481481</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L47">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3003,47 +2940,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K48">
-        <v>0.1282051282051282</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N48">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K49">
-        <v>0.12</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3055,47 +2992,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K50">
-        <v>0.12</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K51">
-        <v>0.1194029850746269</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3107,21 +3044,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>0.09841269841269841</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3133,21 +3070,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>284</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K53">
-        <v>0.09444444444444444</v>
+        <v>0.12</v>
       </c>
       <c r="L53">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="M53">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3159,21 +3096,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>489</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K54">
-        <v>0.09036144578313253</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L54">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="M54">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3185,21 +3122,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>604</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K55">
-        <v>0.08029197080291971</v>
+        <v>0.09841269841269841</v>
       </c>
       <c r="L55">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3211,21 +3148,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>126</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K56">
-        <v>0.07949308755760369</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="L56">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="M56">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3237,21 +3174,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1598</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K57">
-        <v>0.07773851590106007</v>
+        <v>0.09074074074074075</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3263,47 +3200,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>261</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K58">
-        <v>0.07407407407407407</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="M58">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="N58">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>100</v>
+        <v>608</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K59">
-        <v>0.07142857142857142</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="L59">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M59">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3315,21 +3252,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>572</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K60">
-        <v>0.06744868035190615</v>
+        <v>0.07467532467532467</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3341,21 +3278,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>318</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K61">
-        <v>0.05426356589147287</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L61">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3367,67 +3304,67 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>122</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K62">
-        <v>0.05263157894736842</v>
+        <v>0.06764705882352941</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N62">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="O62">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>108</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K63">
-        <v>0.03461538461538462</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L63">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>753</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K64">
-        <v>0.02430555555555556</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L64">
         <v>7</v>
@@ -3445,7 +3382,189 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>281</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K65">
+        <v>0.05817972350230415</v>
+      </c>
+      <c r="L65">
+        <v>101</v>
+      </c>
+      <c r="M65">
+        <v>101</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K66">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K67">
+        <v>0.05303030303030303</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K68">
+        <v>0.04513888888888889</v>
+      </c>
+      <c r="L68">
+        <v>13</v>
+      </c>
+      <c r="M68">
+        <v>13</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K69">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>7</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K70">
+        <v>0.03713188220230474</v>
+      </c>
+      <c r="L70">
+        <v>29</v>
+      </c>
+      <c r="M70">
+        <v>29</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71">
+        <v>0.02816901408450704</v>
+      </c>
+      <c r="L71">
+        <v>8</v>
+      </c>
+      <c r="M71">
+        <v>23</v>
+      </c>
+      <c r="N71">
+        <v>0.35</v>
+      </c>
+      <c r="O71">
+        <v>0.65</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
